--- a/output/0/tRNA-His-GTG-2-1.xlsx
+++ b/output/0/tRNA-His-GTG-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>chr1</t>
   </si>
@@ -138,36 +138,6 @@
   </si>
   <si>
     <t>59</t>
-  </si>
-  <si>
-    <t>149156081</t>
-  </si>
-  <si>
-    <t>149156104</t>
-  </si>
-  <si>
-    <t>149156084</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AGAGGCCCAGGCTGGAGTGG</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>96% (78)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 56%, Moreno-Mateos: 96%</t>
   </si>
 </sst>
 </file>
@@ -212,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,65 +424,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
